--- a/tests/files/correct_vat.xlsx
+++ b/tests/files/correct_vat.xlsx
@@ -28,10 +28,10 @@
     <t>weight</t>
   </si>
   <si>
-    <t>selling price</t>
-  </si>
-  <si>
-    <t>buying price</t>
+    <t>selling price incl. vat</t>
+  </si>
+  <si>
+    <t>buying price excl. vat</t>
   </si>
   <si>
     <t>vat</t>
